--- a/Assets/Asset List.xlsx
+++ b/Assets/Asset List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="64">
   <si>
     <t>File Name</t>
   </si>
@@ -152,6 +152,60 @@
   </si>
   <si>
     <t>menu image</t>
+  </si>
+  <si>
+    <t>bg-kitchen</t>
+  </si>
+  <si>
+    <t>kitchen scene background</t>
+  </si>
+  <si>
+    <t>bg-dining</t>
+  </si>
+  <si>
+    <t>dining room background</t>
+  </si>
+  <si>
+    <t>bg-garden</t>
+  </si>
+  <si>
+    <t>garden background</t>
+  </si>
+  <si>
+    <t>bg-lake</t>
+  </si>
+  <si>
+    <t>lake background</t>
+  </si>
+  <si>
+    <t>bg-living</t>
+  </si>
+  <si>
+    <t>living room background</t>
+  </si>
+  <si>
+    <t>bg-bath</t>
+  </si>
+  <si>
+    <t>bathroom background</t>
+  </si>
+  <si>
+    <t>bg-station</t>
+  </si>
+  <si>
+    <t>police station background</t>
+  </si>
+  <si>
+    <t>bg-therapist</t>
+  </si>
+  <si>
+    <t>therapist background</t>
+  </si>
+  <si>
+    <t>bg-room</t>
+  </si>
+  <si>
+    <t>example room image for tests</t>
   </si>
 </sst>
 </file>
@@ -502,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,16 +873,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -839,16 +893,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
@@ -859,10 +913,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -874,6 +928,186 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
         <v>35</v>
       </c>
     </row>
